--- a/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278203</v>
+        <v>278204</v>
       </c>
       <c r="D10" t="n">
         <v>29589</v>
       </c>
       <c r="E10" t="n">
-        <v>1752353881</v>
+        <v>1752356064</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>119204</v>
+        <v>119205</v>
       </c>
       <c r="D14" t="n">
         <v>25292</v>
       </c>
       <c r="E14" t="n">
-        <v>379401589</v>
+        <v>379403089</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -4469,13 +4469,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>136577</v>
+        <v>136579</v>
       </c>
       <c r="D99" t="n">
         <v>14096</v>
       </c>
       <c r="E99" t="n">
-        <v>863158438</v>
+        <v>863224615</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285074</v>
+        <v>285079</v>
       </c>
       <c r="D168" t="n">
         <v>58123</v>
       </c>
       <c r="E168" t="n">
-        <v>1212630370</v>
+        <v>1212709905</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562644</v>
+        <v>562645</v>
       </c>
       <c r="D169" t="n">
         <v>60955</v>
       </c>
       <c r="E169" t="n">
-        <v>1285341892</v>
+        <v>1285392035</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367500</v>
+        <v>367505</v>
       </c>
       <c r="D170" t="n">
         <v>38113</v>
       </c>
       <c r="E170" t="n">
-        <v>2847431115</v>
+        <v>2847509770</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>54392</v>
+        <v>54393</v>
       </c>
       <c r="D173" t="n">
         <v>11601</v>
       </c>
       <c r="E173" t="n">
-        <v>151908108</v>
+        <v>151918108</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357319</v>
+        <v>357321</v>
       </c>
       <c r="D174" t="n">
         <v>69790</v>
       </c>
       <c r="E174" t="n">
-        <v>1019602170</v>
+        <v>1019622170</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125589</v>
+        <v>125596</v>
       </c>
       <c r="D175" t="n">
         <v>18103</v>
       </c>
       <c r="E175" t="n">
-        <v>814199039</v>
+        <v>814259535</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96769</v>
+        <v>96770</v>
       </c>
       <c r="D177" t="n">
         <v>16507</v>
       </c>
       <c r="E177" t="n">
-        <v>174786892</v>
+        <v>174790004</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235764</v>
+        <v>235768</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>813212833</v>
+        <v>813219166</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>19710</v>
+        <v>19711</v>
       </c>
       <c r="D188" t="n">
         <v>2625</v>
       </c>
       <c r="E188" t="n">
-        <v>66163080</v>
+        <v>66197569</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -13366,13 +13366,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>38705</v>
+        <v>38706</v>
       </c>
       <c r="D316" t="n">
         <v>8093</v>
       </c>
       <c r="E316" t="n">
-        <v>87164287</v>
+        <v>87171227</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -13407,13 +13407,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>103584</v>
+        <v>103586</v>
       </c>
       <c r="D317" t="n">
         <v>21218</v>
       </c>
       <c r="E317" t="n">
-        <v>303300964</v>
+        <v>303305103</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
